--- a/evaluation/summarize_eval.xlsx
+++ b/evaluation/summarize_eval.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://entuedu-my.sharepoint.com/personal/wwong029_e_ntu_edu_sg/Documents/FYP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://entuedu-my.sharepoint.com/personal/wwong029_e_ntu_edu_sg/Documents/FYP/evaluation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="252" documentId="8_{2D0E475A-441A-4922-BFD9-F27D98C6A6ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{35A3EC6B-E9AB-422E-86DF-DCCC58508E30}"/>
+  <xr:revisionPtr revIDLastSave="262" documentId="8_{2D0E475A-441A-4922-BFD9-F27D98C6A6ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2529827C-0108-4D30-9B44-D6B4DEF66022}"/>
   <bookViews>
-    <workbookView xWindow="4530" yWindow="855" windowWidth="28800" windowHeight="15345" xr2:uid="{D27F9CB6-97F6-4AB1-8431-9AD28631C079}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{D27F9CB6-97F6-4AB1-8431-9AD28631C079}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1026,9 +1026,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1045,10 +1043,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1374,18 +1368,19 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.54296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="36" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.42578125" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" customWidth="1"/>
-    <col min="15" max="15" width="38.28515625" customWidth="1"/>
-    <col min="16" max="16" width="156.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.453125" customWidth="1"/>
+    <col min="5" max="5" width="12.81640625" customWidth="1"/>
+    <col min="9" max="9" width="34.90625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="38.26953125" customWidth="1"/>
+    <col min="16" max="16" width="156.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -1406,7 +1401,7 @@
       </c>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1423,7 +1418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1458,7 +1453,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1496,7 +1491,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1534,7 +1529,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1572,7 +1567,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1610,7 +1605,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1648,7 +1643,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1686,7 +1681,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1718,7 +1713,7 @@
         <v>0.9375</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1735,7 +1730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1756,7 +1751,7 @@
       <c r="K12" s="1"/>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1776,7 +1771,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1793,7 +1788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1810,7 +1805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1827,7 +1822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1844,7 +1839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1861,7 +1856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1878,7 +1873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F51" t="s">
         <v>33</v>
       </c>
